--- a/Wave 5_React_Tracker_(Thanuja S).xlsx
+++ b/Wave 5_React_Tracker_(Thanuja S).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>To do</t>
@@ -128,8 +125,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,16 +429,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A3" s="5" t="s">
@@ -482,7 +479,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>42605</v>
       </c>
       <c r="B4" t="s">
@@ -501,22 +498,22 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_(Thanuja S).xlsx
+++ b/Wave 5_React_Tracker_(Thanuja S).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Git URL:https://github.com/Bangerathanujas/ReactPractice.git</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,6 +519,82 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
+        <v>42606</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
+        <v>42607</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Thanuja S).xlsx
+++ b/Wave 5_React_Tracker_(Thanuja S).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -402,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,6 +595,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
+        <v>42608</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Thanuja S).xlsx
+++ b/Wave 5_React_Tracker_(Thanuja S).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -402,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,6 +633,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
+        <v>42611</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
